--- a/LOGS/2a465118-9c4e-4fea-abc5-b0fdbab2eae7/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/2a465118-9c4e-4fea-abc5-b0fdbab2eae7/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="95">
   <si>
     <t>line_item_0</t>
   </si>
@@ -2773,9 +2773,6 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
       <c r="C9">
         <v>0</v>
       </c>
@@ -2796,9 +2793,6 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
       <c r="C10">
         <v>0</v>
       </c>
@@ -2817,9 +2811,6 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11">
@@ -2842,9 +2833,6 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
       <c r="C12">
         <v>0</v>
       </c>
@@ -2865,9 +2853,6 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
       <c r="C13">
         <v>0</v>
       </c>
@@ -2888,9 +2873,6 @@
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
       <c r="C14">
         <v>0</v>
       </c>
@@ -2909,9 +2891,6 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15">
@@ -2934,9 +2913,6 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
       <c r="C16">
         <v>0</v>
       </c>
@@ -3189,9 +3165,6 @@
       <c r="A28" t="s">
         <v>19</v>
       </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
       <c r="C28">
         <v>0</v>
       </c>
@@ -3212,9 +3185,6 @@
       <c r="A29" t="s">
         <v>20</v>
       </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
       <c r="C29">
         <v>-119</v>
       </c>
@@ -3233,9 +3203,6 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" t="s">
         <v>14</v>
       </c>
       <c r="C30">
@@ -3258,9 +3225,6 @@
       <c r="A31" t="s">
         <v>19</v>
       </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
       <c r="C31">
         <v>0</v>
       </c>
@@ -3281,9 +3245,6 @@
       <c r="A32" t="s">
         <v>19</v>
       </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
       <c r="C32">
         <v>0</v>
       </c>
@@ -3304,9 +3265,6 @@
       <c r="A33" t="s">
         <v>20</v>
       </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
       <c r="C33">
         <v>-178</v>
       </c>
@@ -3325,9 +3283,6 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
         <v>14</v>
       </c>
       <c r="C34">
@@ -3350,9 +3305,6 @@
       <c r="A35" t="s">
         <v>19</v>
       </c>
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
       <c r="C35">
         <v>0</v>
       </c>
@@ -3605,9 +3557,6 @@
       <c r="A47" t="s">
         <v>19</v>
       </c>
-      <c r="B47" t="s">
-        <v>14</v>
-      </c>
       <c r="C47">
         <v>-2407</v>
       </c>
@@ -3628,9 +3577,6 @@
       <c r="A48" t="s">
         <v>20</v>
       </c>
-      <c r="B48" t="s">
-        <v>14</v>
-      </c>
       <c r="C48">
         <v>-204</v>
       </c>
@@ -3649,9 +3595,6 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" t="s">
         <v>14</v>
       </c>
       <c r="C49">
@@ -3674,9 +3617,6 @@
       <c r="A50" t="s">
         <v>19</v>
       </c>
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
       <c r="C50">
         <v>-2526</v>
       </c>
@@ -3697,9 +3637,6 @@
       <c r="A51" t="s">
         <v>19</v>
       </c>
-      <c r="B51" t="s">
-        <v>14</v>
-      </c>
       <c r="C51">
         <v>-2526</v>
       </c>
@@ -3720,9 +3657,6 @@
       <c r="A52" t="s">
         <v>20</v>
       </c>
-      <c r="B52" t="s">
-        <v>14</v>
-      </c>
       <c r="C52">
         <v>-235</v>
       </c>
@@ -3741,9 +3675,6 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" t="s">
         <v>14</v>
       </c>
       <c r="C53">
@@ -3766,9 +3697,6 @@
       <c r="A54" t="s">
         <v>19</v>
       </c>
-      <c r="B54" t="s">
-        <v>14</v>
-      </c>
       <c r="C54">
         <v>-2692</v>
       </c>
@@ -4021,9 +3949,6 @@
       <c r="A66" t="s">
         <v>19</v>
       </c>
-      <c r="B66" t="s">
-        <v>14</v>
-      </c>
       <c r="C66">
         <v>-1642</v>
       </c>
@@ -4044,9 +3969,6 @@
       <c r="A67" t="s">
         <v>20</v>
       </c>
-      <c r="B67" t="s">
-        <v>14</v>
-      </c>
       <c r="C67">
         <v>-313</v>
       </c>
@@ -4065,9 +3987,6 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>14</v>
-      </c>
-      <c r="B68" t="s">
         <v>14</v>
       </c>
       <c r="C68">
@@ -4090,9 +4009,6 @@
       <c r="A69" t="s">
         <v>19</v>
       </c>
-      <c r="B69" t="s">
-        <v>14</v>
-      </c>
       <c r="C69">
         <v>-1482</v>
       </c>
@@ -4113,9 +4029,6 @@
       <c r="A70" t="s">
         <v>19</v>
       </c>
-      <c r="B70" t="s">
-        <v>14</v>
-      </c>
       <c r="C70">
         <v>-1482</v>
       </c>
@@ -4136,9 +4049,6 @@
       <c r="A71" t="s">
         <v>20</v>
       </c>
-      <c r="B71" t="s">
-        <v>14</v>
-      </c>
       <c r="C71">
         <v>-369</v>
       </c>
@@ -4157,9 +4067,6 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>14</v>
-      </c>
-      <c r="B72" t="s">
         <v>14</v>
       </c>
       <c r="C72">
@@ -4182,9 +4089,6 @@
       <c r="A73" t="s">
         <v>19</v>
       </c>
-      <c r="B73" t="s">
-        <v>14</v>
-      </c>
       <c r="C73">
         <v>-1357</v>
       </c>
@@ -4437,9 +4341,6 @@
       <c r="A85" t="s">
         <v>19</v>
       </c>
-      <c r="B85" t="s">
-        <v>14</v>
-      </c>
       <c r="C85">
         <v>-1069</v>
       </c>
@@ -4460,9 +4361,6 @@
       <c r="A86" t="s">
         <v>20</v>
       </c>
-      <c r="B86" t="s">
-        <v>14</v>
-      </c>
       <c r="C86">
         <v>-636</v>
       </c>
@@ -4481,9 +4379,6 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>14</v>
-      </c>
-      <c r="B87" t="s">
         <v>14</v>
       </c>
       <c r="C87">
@@ -4506,9 +4401,6 @@
       <c r="A88" t="s">
         <v>19</v>
       </c>
-      <c r="B88" t="s">
-        <v>14</v>
-      </c>
       <c r="C88">
         <v>-1382</v>
       </c>
@@ -4529,9 +4421,6 @@
       <c r="A89" t="s">
         <v>19</v>
       </c>
-      <c r="B89" t="s">
-        <v>14</v>
-      </c>
       <c r="C89">
         <v>-1382</v>
       </c>
@@ -4552,9 +4441,6 @@
       <c r="A90" t="s">
         <v>20</v>
       </c>
-      <c r="B90" t="s">
-        <v>14</v>
-      </c>
       <c r="C90">
         <v>-782</v>
       </c>
@@ -4573,9 +4459,6 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>14</v>
-      </c>
-      <c r="B91" t="s">
         <v>14</v>
       </c>
       <c r="C91">
@@ -4597,9 +4480,6 @@
     <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>19</v>
-      </c>
-      <c r="B92" t="s">
-        <v>14</v>
       </c>
       <c r="C92">
         <v>-1377</v>
